--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -45,10 +45,10 @@
     <t xml:space="preserve">Solution Architect role</t>
   </si>
   <si>
-    <t xml:space="preserve">Start day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End day</t>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End</t>
   </si>
   <si>
     <t xml:space="preserve">Work</t>
@@ -556,8 +556,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -802,7 +802,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1209,8 +1209,8 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1835,7 +1835,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2230,7 +2230,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2694,7 +2694,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3089,7 +3089,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3286,7 +3286,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -20,6 +20,12 @@
     <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="108">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -249,28 +255,112 @@
     <t xml:space="preserve">Hours per day</t>
   </si>
   <si>
-    <t xml:space="preserve">dpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-11-20</t>
+    <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">scip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2ca02c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d62728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task's Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff7f0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoicing Periods Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:ecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:capsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task with bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:markeredgewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step:linewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#90EE90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
 </sst>
 </file>
@@ -282,7 +372,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -317,8 +407,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +426,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -366,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,7 +542,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,6 +567,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -556,7 +743,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -600,7 +787,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -683,7 +870,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -718,17 +905,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -741,46 +928,562 @@
       <c r="C1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>78</v>
+      <c r="A2" s="10" t="n">
+        <v>45616</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="16" t="n">
+        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
+        <v>45835</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="12" width="23.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <v>45834</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="18" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="18" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <v>45834</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="18" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="18" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <v>45834</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="18" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="18" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <v>45834</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="18" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="18" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>45840</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="11" t="n">
-        <v>45840</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +1504,7 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1053,7 +1756,7 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1209,7 +1912,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1834,7 +2537,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2229,7 +2932,7 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2693,7 +3396,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3088,7 +3791,7 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3285,7 +3988,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -1160,8 +1160,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1213,7 +1213,8 @@
         <v>45617</v>
       </c>
       <c r="F2" s="11" t="n">
-        <v>45834</v>
+        <f aca="false">E2+20</f>
+        <v>45637</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>0.6</v>
@@ -1245,7 +1246,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1413,7 +1414,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -966,7 +966,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1025,7 +1025,8 @@
         <v>45617</v>
       </c>
       <c r="F2" s="11" t="n">
-        <v>45834</v>
+        <f aca="false">E2+20</f>
+        <v>45637</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>83</v>
@@ -1063,8 +1064,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1122,7 +1123,8 @@
         <v>45617</v>
       </c>
       <c r="F2" s="11" t="n">
-        <v>45834</v>
+        <f aca="false">E2+20</f>
+        <v>45637</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>86</v>
@@ -1160,7 +1162,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="108">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1064,7 +1064,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1246,16 +1246,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,25 +1272,13 @@
         <v>77</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,28 +1291,14 @@
       <c r="D2" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="11" t="n">
-        <v>45834</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="G2" s="3" t="n">
         <v>0.6</v>
-      </c>
-      <c r="J2" s="18" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="18" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="108">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -744,7 +744,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -787,8 +787,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -813,9 +813,18 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1"/>
@@ -1248,7 +1257,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -3966,7 +3975,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="109">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -361,6 +362,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -788,7 +792,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1483,6 +1487,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">

--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -5,28 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="tasks" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="links" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="task" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="assign" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="xbday" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="xbsum" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="ubday" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="ubsum" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="expert bounds" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="invoicing periods" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="ubday" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="ebday" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="period" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="109">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -789,135 +787,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
-        <v>45651</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -956,7 +825,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="16" t="n">
-        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
+        <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>45835</v>
       </c>
     </row>
@@ -971,7 +840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1070,7 +939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1168,7 +1037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1254,7 +1123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1325,7 +1194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1396,7 +1265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1487,7 +1356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2584,401 +2453,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3438,402 +2912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4030,7 +3109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4134,4 +3213,133 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
+        <v>45651</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -946,7 +946,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3314,7 +3314,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="111">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -257,10 +257,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">scip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -746,7 +752,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -787,17 +793,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -810,8 +816,11 @@
       <c r="C1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="6" t="s">
         <v>73</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,9 +831,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="16" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="16" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>45835</v>
       </c>
@@ -848,7 +860,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -863,13 +875,13 @@
         <v>71</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -878,19 +890,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,10 +923,10 @@
         <v>45637</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0.3</v>
@@ -924,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="18" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -946,8 +958,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -958,16 +970,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -976,19 +988,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,10 +1021,10 @@
         <v>45637</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0.3</v>
@@ -1022,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="18" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1045,7 +1057,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1056,16 +1068,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -1074,13 +1086,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="18" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1131,7 +1143,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D1:D2 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1142,25 +1154,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,7 +1186,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0.9</v>
@@ -1202,7 +1214,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1213,25 +1225,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,10 +1257,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>4</v>
@@ -1273,7 +1285,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1286,34 +1298,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,16 +1339,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0.5</v>
@@ -1364,7 +1376,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1375,19 +1387,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,7 +1435,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1675,7 +1687,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1831,7 +1843,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2456,7 +2468,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2920,7 +2932,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3117,7 +3129,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3223,7 +3235,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="D1:D2 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3315,7 +3327,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="1" sqref="D1:D2 G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="112">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -269,6 +270,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -278,6 +282,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -285,12 +295,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -423,7 +427,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,13 +449,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
         <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
   </fills>
@@ -562,7 +572,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,7 +605,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -616,7 +626,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -752,7 +762,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,8 +805,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -857,31 +867,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="12" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -889,53 +898,36 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>150</v>
       </c>
       <c r="E2" s="11" t="n">
+        <f aca="false">misc!A2+1</f>
         <v>45617</v>
       </c>
       <c r="F2" s="11" t="n">
         <f aca="false">E2+20</f>
         <v>45637</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="18" t="b">
+      <c r="G2" s="18" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="18" t="b">
+      <c r="H2" s="18" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
@@ -956,86 +948,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="11" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="11" t="n">
-        <f aca="false">E2+20</f>
-        <v>45637</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="3" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="18" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="18" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,74 +1002,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="11" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="11" t="n">
-        <f aca="false">E2+20</f>
-        <v>45637</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="18" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="18" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1140,16 +1055,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D1:D2 H1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,41 +1072,11 @@
         <v>91</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="3" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1211,59 +1096,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="3" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1282,79 +1149,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="D2" s="3" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1373,46 +1202,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="3" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1435,7 +1319,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1687,7 +1571,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1843,7 +1727,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2468,7 +2352,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2932,7 +2816,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3129,7 +3013,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3235,7 +3119,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="D1:D2 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3327,7 +3211,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="1" sqref="D1:D2 G14"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
+++ b/ampl-data-input-excel/06-long-term-planning-SA/06-long-term-planning-SA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -258,7 +258,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -267,7 +267,7 @@
     <t xml:space="preserve">scip</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -762,7 +762,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,8 +805,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -870,7 +870,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -951,7 +951,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1277,8 +1277,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1571,7 +1571,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1727,7 +1727,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2352,7 +2352,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2816,7 +2816,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3013,7 +3013,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3119,7 +3119,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="D1:D2 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3211,7 +3211,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="1" sqref="D1:D2 G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
